--- a/01.VietSoftHRM/VietSoftHRM/bin/Debug/Template/KQ_DGTVCN.xlsx
+++ b/01.VietSoftHRM/VietSoftHRM/bin/Debug/Template/KQ_DGTVCN.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6D7789-FC24-4CE4-8A0B-3DDC36E09556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,8 +114,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +158,18 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000CC"/>
+      <name val=".VnTimeH"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val=".VnTime"/>
       <family val="2"/>
     </font>
     <font>
@@ -207,12 +218,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000CC"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -280,40 +285,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -327,24 +343,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 27" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal_biÓu mÉu ®Ò nghÞ cÊp vËt tu" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_DSCBCNV cap nhat den 13-1-2009" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal_Phieu danh gia ket qua qua trinh lam viec - 20HCNS" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 27" xfId="3"/>
+    <cellStyle name="Normal_biÓu mÉu ®Ò nghÞ cÊp vËt tu" xfId="1"/>
+    <cellStyle name="Normal_DSCBCNV cap nhat den 13-1-2009" xfId="4"/>
+    <cellStyle name="Normal_Phieu danh gia ket qua qua trinh lam viec - 20HCNS" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,13 +381,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Rectangle 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -425,13 +424,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -499,13 +492,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Rectangle 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -798,14 +785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="3" customWidth="1"/>
@@ -1319,7 +1306,7 @@
     <col min="16133" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1315,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1337,282 +1324,282 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="C3" s="4"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75">
+      <c r="A18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24"/>
+    <row r="21" spans="1:5" ht="12.75">
+      <c r="A21" s="32"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:5" ht="12.75">
+      <c r="A22" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.75">
+      <c r="A23" s="36"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75">
+      <c r="A24" s="36"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75">
+      <c r="A25" s="36"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="12.75">
+      <c r="A26" s="36"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75">
+      <c r="A27" s="36"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="12.75">
+      <c r="A28" s="36"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75">
+      <c r="A29" s="36"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.75">
+      <c r="A30" s="36"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75">
+      <c r="A31" s="36"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="12.75">
+      <c r="A32" s="36"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.75">
+      <c r="A33" s="36"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.75">
+      <c r="A34" s="36"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1620,7 +1607,6 @@
     <mergeCell ref="A4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/01.VietSoftHRM/VietSoftHRM/bin/Debug/Template/KQ_DGTVCN.xlsx
+++ b/01.VietSoftHRM/VietSoftHRM/bin/Debug/Template/KQ_DGTVCN.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0E160-3FD4-4D9A-9060-C2D010CBC916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1722E3A-58F0-4936-A4EB-B6569EA0C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>Excel tailoring co.,ltd</t>
-  </si>
-  <si>
     <t>Yen Ninh Town - Yen Khanh District - Ninh Binh Province</t>
   </si>
   <si>
-    <t xml:space="preserve">                         EXBM - 20HCNS</t>
-  </si>
-  <si>
     <t>PHIẾU ĐÁNH GIÁ KẾT QUẢ THỬ VIỆC</t>
   </si>
   <si>
@@ -110,13 +104,19 @@
   </si>
   <si>
     <t>{PhieuDanhGiaKetQuaThuViec.NGAY_KET_THUC_THU_VIEC}</t>
+  </si>
+  <si>
+    <t>NAM&amp;CO LONDON CO.,LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         NCBM - 20HCNS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,11 @@
       <color rgb="FF0000CC"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,7 +280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -324,16 +329,17 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -410,80 +416,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5514975" y="19050"/>
-          <a:ext cx="1133475" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -529,6 +461,50 @@
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1152524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1C6FDE-9040-45D2-AB82-FA8889360415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="19050"/>
+          <a:ext cx="1076324" cy="332777"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -800,10 +776,10 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="5" customWidth="1"/>
@@ -1317,295 +1293,295 @@
     <col min="16133" max="16384" width="9.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="8"/>
-      <c r="D3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.25">
-      <c r="A4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1">
+      <c r="D3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="18.75" customHeight="1">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" ht="18.75" customHeight="1">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>20</v>
-      </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="18.75" customHeight="1">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="21"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="18.75" customHeight="1">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="18.75" customHeight="1">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" customHeight="1">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
     </row>
-    <row r="23" spans="1:5" ht="12.75">
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="12.75">
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="12.75">
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="12.75">
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="12.75">
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="12.75">
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="12.75">
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="12.75">
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="25"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="12.75">
+    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="12.75">
+    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="12.75">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75">
+    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
